--- a/biology/Botanique/Phaius_tankervilleae/Phaius_tankervilleae.xlsx
+++ b/biology/Botanique/Phaius_tankervilleae/Phaius_tankervilleae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Phaius tankervilleae est une espèce d'orchidées terrestres que l'on trouve en Inde, Nouvelle-Guinée, Chine, Indonésie, Malaisie et Australie. En Australie, on la trouve entre Brunswick Heads en Nouvelle-Galles du Sud au sud jusqu'aux régions tropicales du Queensland au nord. Elle est classée comme menacée d'extinction.
 En 1778, John Fothergill la ramène de Chine en Angleterre. Plus tard, Joseph Banks nomme la plante en l'honneur de Lady Emma Tankerville lorsque l'orchidée fleurit dans sa serre de Walton-on-Thames, près de Londres. L'épithète spécifique fait référence au nom marital d'Emma, comtesse Tankerville, forme anglicisée de Tancarville, une ville de Normandie, en France.
@@ -514,9 +526,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante facile à cultiver. Elle préfère la mi-ombre. La propagation est réalisée à partir de graines ou, plus simplement, en coupant la hampe défleurie à la base de la plante et en l'installant au chaud sur un lit de sable à peine humide, recouverte par film plastique, en situation ombragée : de nouvelles plantules apparaîtront à partir des nœuds au bout d'un à deux mois et pourront être transférées en pots individuels au bout de six mois[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante facile à cultiver. Elle préfère la mi-ombre. La propagation est réalisée à partir de graines ou, plus simplement, en coupant la hampe défleurie à la base de la plante et en l'installant au chaud sur un lit de sable à peine humide, recouverte par film plastique, en situation ombragée : de nouvelles plantules apparaîtront à partir des nœuds au bout d'un à deux mois et pourront être transférées en pots individuels au bout de six mois.
 Ce Phaius fleurit généralement au printemps.
 </t>
         </is>
@@ -546,9 +560,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Phaius tancarvilleae[3]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Phaius tancarvilleae</t>
         </is>
       </c>
     </row>
